--- a/Excel/subscribers.xlsx
+++ b/Excel/subscribers.xlsx
@@ -1,17 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\IIITD\FIRST_SEM\OOPD\Project\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31356C55-AF6C-4FF6-B27E-3711FA34671F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="subscribers" sheetId="1" r:id="rId4"/>
+    <sheet name="subscribers" sheetId="1" r:id="rId1"/>
+    <sheet name="Airtel" sheetId="2" r:id="rId2"/>
+    <sheet name="BSNL" sheetId="3" r:id="rId3"/>
+    <sheet name="JIO" sheetId="4" r:id="rId4"/>
+    <sheet name="Vodafone" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Airtel!$A$1:$C$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BSNL!$A$1:$C$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">JIO!$A$1:$C$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">subscribers!$A$1:$D$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Vodafone!$A$1:$C$28</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
@@ -58,19 +91,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="mm-dd"/>
-    <numFmt numFmtId="165" formatCode="m-d"/>
+    <numFmt numFmtId="164" formatCode="mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -81,42 +115,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -306,20 +343,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -333,9 +375,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45085.0</v>
+        <v>45085</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -344,12 +386,12 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>59016.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>59016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45154.0</v>
+        <v>45154</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -358,12 +400,12 @@
         <v>7</v>
       </c>
       <c r="D3" s="1">
-        <v>26877.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>26877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45155.0</v>
+        <v>45155</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -372,12 +414,12 @@
         <v>8</v>
       </c>
       <c r="D4" s="1">
-        <v>12660.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>12660</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45126.0</v>
+        <v>45126</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -386,12 +428,12 @@
         <v>9</v>
       </c>
       <c r="D5" s="1">
-        <v>10511.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>10511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>44947.0</v>
+        <v>44947</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -400,12 +442,12 @@
         <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>37270.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>37270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45033.0</v>
+        <v>45033</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -414,12 +456,12 @@
         <v>8</v>
       </c>
       <c r="D7" s="1">
-        <v>67734.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>67734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>45240.0</v>
+        <v>45240</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
@@ -428,12 +470,12 @@
         <v>8</v>
       </c>
       <c r="D8" s="1">
-        <v>81827.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>81827</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45115.0</v>
+        <v>45115</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -442,12 +484,12 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>49516.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>49516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44945.0</v>
+        <v>44945</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
@@ -456,12 +498,12 @@
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>9935.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>9935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>45212.0</v>
+        <v>45212</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
@@ -470,12 +512,12 @@
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>67143.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>67143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45000.0</v>
+        <v>45000</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -484,12 +526,12 @@
         <v>8</v>
       </c>
       <c r="D12" s="1">
-        <v>81549.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>81549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>45210.0</v>
+        <v>45210</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
@@ -498,12 +540,12 @@
         <v>7</v>
       </c>
       <c r="D13" s="1">
-        <v>28679.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>28679</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45122.0</v>
+        <v>45122</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
@@ -512,12 +554,12 @@
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>15196.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>15196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45180.0</v>
+        <v>45180</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -526,12 +568,12 @@
         <v>12</v>
       </c>
       <c r="D15" s="1">
-        <v>61548.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>61548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45064.0</v>
+        <v>45064</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
@@ -540,12 +582,12 @@
         <v>8</v>
       </c>
       <c r="D16" s="1">
-        <v>46992.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>46992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45064.0</v>
+        <v>45064</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
@@ -554,12 +596,12 @@
         <v>12</v>
       </c>
       <c r="D17" s="1">
-        <v>73120.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>73120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>45251.0</v>
+        <v>45251</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>4</v>
@@ -568,12 +610,12 @@
         <v>7</v>
       </c>
       <c r="D18" s="1">
-        <v>52338.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>52338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45094.0</v>
+        <v>45094</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>4</v>
@@ -582,12 +624,12 @@
         <v>8</v>
       </c>
       <c r="D19" s="1">
-        <v>65596.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>65596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45091.0</v>
+        <v>45091</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>4</v>
@@ -596,12 +638,12 @@
         <v>8</v>
       </c>
       <c r="D20" s="1">
-        <v>81374.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>81374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45099.0</v>
+        <v>45099</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
@@ -610,12 +652,12 @@
         <v>5</v>
       </c>
       <c r="D21" s="1">
-        <v>45234.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>45234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44944.0</v>
+        <v>44944</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>6</v>
@@ -624,12 +666,12 @@
         <v>10</v>
       </c>
       <c r="D22" s="1">
-        <v>73647.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>73647</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45125.0</v>
+        <v>45125</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
@@ -638,12 +680,12 @@
         <v>10</v>
       </c>
       <c r="D23" s="1">
-        <v>32380.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>32380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45037.0</v>
+        <v>45037</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>4</v>
@@ -652,12 +694,12 @@
         <v>7</v>
       </c>
       <c r="D24" s="1">
-        <v>1670.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44967.0</v>
+        <v>44967</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
@@ -666,12 +708,12 @@
         <v>8</v>
       </c>
       <c r="D25" s="1">
-        <v>27673.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>27673</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45088.0</v>
+        <v>45088</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>4</v>
@@ -680,12 +722,12 @@
         <v>8</v>
       </c>
       <c r="D26" s="1">
-        <v>98527.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>98527</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45005.0</v>
+        <v>45005</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
@@ -694,12 +736,12 @@
         <v>8</v>
       </c>
       <c r="D27" s="1">
-        <v>77789.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>77789</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45035.0</v>
+        <v>45035</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>11</v>
@@ -708,12 +750,12 @@
         <v>9</v>
       </c>
       <c r="D28" s="1">
-        <v>94971.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>94971</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44967.0</v>
+        <v>44967</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>11</v>
@@ -722,12 +764,12 @@
         <v>8</v>
       </c>
       <c r="D29" s="1">
-        <v>98919.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>98919</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44948.0</v>
+        <v>44948</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>4</v>
@@ -736,12 +778,12 @@
         <v>12</v>
       </c>
       <c r="D30" s="1">
-        <v>7898.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>7898</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>45218.0</v>
+        <v>45218</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
@@ -750,12 +792,12 @@
         <v>7</v>
       </c>
       <c r="D31" s="1">
-        <v>32793.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>32793</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45003.0</v>
+        <v>45003</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>11</v>
@@ -764,12 +806,12 @@
         <v>8</v>
       </c>
       <c r="D32" s="1">
-        <v>72584.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>72584</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45030.0</v>
+        <v>45030</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>6</v>
@@ -778,12 +820,12 @@
         <v>10</v>
       </c>
       <c r="D33" s="1">
-        <v>88130.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>88130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45004.0</v>
+        <v>45004</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>4</v>
@@ -792,12 +834,12 @@
         <v>10</v>
       </c>
       <c r="D34" s="1">
-        <v>28299.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>28299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45005.0</v>
+        <v>45005</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>6</v>
@@ -806,12 +848,12 @@
         <v>8</v>
       </c>
       <c r="D35" s="1">
-        <v>68086.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>68086</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45088.0</v>
+        <v>45088</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>6</v>
@@ -820,12 +862,12 @@
         <v>8</v>
       </c>
       <c r="D36" s="1">
-        <v>4203.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>45272.0</v>
+        <v>45272</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>6</v>
@@ -834,12 +876,12 @@
         <v>7</v>
       </c>
       <c r="D37" s="1">
-        <v>15747.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>15747</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45068.0</v>
+        <v>45068</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>4</v>
@@ -848,12 +890,12 @@
         <v>12</v>
       </c>
       <c r="D38" s="1">
-        <v>30389.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>30389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45065.0</v>
+        <v>45065</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>4</v>
@@ -862,12 +904,12 @@
         <v>9</v>
       </c>
       <c r="D39" s="1">
-        <v>11279.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>11279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45129.0</v>
+        <v>45129</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>4</v>
@@ -876,12 +918,12 @@
         <v>10</v>
       </c>
       <c r="D40" s="1">
-        <v>79802.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>79802</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>44944.0</v>
+        <v>44944</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>6</v>
@@ -890,12 +932,12 @@
         <v>12</v>
       </c>
       <c r="D41" s="1">
-        <v>87300.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>87300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>44934.0</v>
+        <v>44934</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>13</v>
@@ -904,12 +946,12 @@
         <v>5</v>
       </c>
       <c r="D42" s="1">
-        <v>1035.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45027.0</v>
+        <v>45027</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>11</v>
@@ -918,12 +960,12 @@
         <v>9</v>
       </c>
       <c r="D43" s="1">
-        <v>88743.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>88743</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45115.0</v>
+        <v>45115</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>6</v>
@@ -932,12 +974,12 @@
         <v>7</v>
       </c>
       <c r="D44" s="1">
-        <v>58878.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>58878</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>45272.0</v>
+        <v>45272</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>13</v>
@@ -946,12 +988,12 @@
         <v>5</v>
       </c>
       <c r="D45" s="1">
-        <v>70013.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>70013</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45152.0</v>
+        <v>45152</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>11</v>
@@ -960,12 +1002,12 @@
         <v>5</v>
       </c>
       <c r="D46" s="1">
-        <v>16644.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>16644</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45063.0</v>
+        <v>45063</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>4</v>
@@ -974,12 +1016,12 @@
         <v>8</v>
       </c>
       <c r="D47" s="1">
-        <v>16648.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>16648</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45036.0</v>
+        <v>45036</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>13</v>
@@ -988,12 +1030,12 @@
         <v>8</v>
       </c>
       <c r="D48" s="1">
-        <v>14179.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>14179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>45251.0</v>
+        <v>45251</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>11</v>
@@ -1002,12 +1044,12 @@
         <v>7</v>
       </c>
       <c r="D49" s="1">
-        <v>22648.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>22648</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>44945.0</v>
+        <v>44945</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>6</v>
@@ -1016,12 +1058,12 @@
         <v>5</v>
       </c>
       <c r="D50" s="1">
-        <v>52135.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>52135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>45216.0</v>
+        <v>45216</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>6</v>
@@ -1030,12 +1072,12 @@
         <v>12</v>
       </c>
       <c r="D51" s="1">
-        <v>16325.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>16325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45036.0</v>
+        <v>45036</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>11</v>
@@ -1044,12 +1086,12 @@
         <v>5</v>
       </c>
       <c r="D52" s="1">
-        <v>84164.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>84164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>45244.0</v>
+        <v>45244</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>4</v>
@@ -1058,12 +1100,12 @@
         <v>12</v>
       </c>
       <c r="D53" s="1">
-        <v>10982.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>10982</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45148.0</v>
+        <v>45148</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>11</v>
@@ -1072,12 +1114,12 @@
         <v>7</v>
       </c>
       <c r="D54" s="1">
-        <v>40459.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>40459</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45062.0</v>
+        <v>45062</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>11</v>
@@ -1086,12 +1128,12 @@
         <v>5</v>
       </c>
       <c r="D55" s="1">
-        <v>40888.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>40888</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45068.0</v>
+        <v>45068</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>11</v>
@@ -1100,12 +1142,12 @@
         <v>9</v>
       </c>
       <c r="D56" s="1">
-        <v>66531.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>66531</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45124.0</v>
+        <v>45124</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>11</v>
@@ -1114,12 +1156,12 @@
         <v>5</v>
       </c>
       <c r="D57" s="1">
-        <v>43261.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>43261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45036.0</v>
+        <v>45036</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>13</v>
@@ -1128,12 +1170,12 @@
         <v>10</v>
       </c>
       <c r="D58" s="1">
-        <v>98763.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>98763</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45153.0</v>
+        <v>45153</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>6</v>
@@ -1142,12 +1184,12 @@
         <v>12</v>
       </c>
       <c r="D59" s="1">
-        <v>16240.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>16240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>45209.0</v>
+        <v>45209</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>6</v>
@@ -1156,12 +1198,12 @@
         <v>5</v>
       </c>
       <c r="D60" s="1">
-        <v>79714.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>79714</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45116.0</v>
+        <v>45116</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>13</v>
@@ -1170,12 +1212,12 @@
         <v>9</v>
       </c>
       <c r="D61" s="1">
-        <v>89235.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>89235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45154.0</v>
+        <v>45154</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>6</v>
@@ -1184,12 +1226,12 @@
         <v>9</v>
       </c>
       <c r="D62" s="1">
-        <v>86175.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>86175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>45215.0</v>
+        <v>45215</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>11</v>
@@ -1198,12 +1240,12 @@
         <v>9</v>
       </c>
       <c r="D63" s="1">
-        <v>34908.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>34908</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45150.0</v>
+        <v>45150</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>13</v>
@@ -1212,12 +1254,12 @@
         <v>5</v>
       </c>
       <c r="D64" s="1">
-        <v>9698.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>9698</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>44965.0</v>
+        <v>44965</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>13</v>
@@ -1226,12 +1268,12 @@
         <v>5</v>
       </c>
       <c r="D65" s="1">
-        <v>93619.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>93619</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45178.0</v>
+        <v>45178</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>11</v>
@@ -1240,12 +1282,12 @@
         <v>10</v>
       </c>
       <c r="D66" s="1">
-        <v>7937.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>7937</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>45213.0</v>
+        <v>45213</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>4</v>
@@ -1254,12 +1296,12 @@
         <v>10</v>
       </c>
       <c r="D67" s="1">
-        <v>69906.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>69906</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>44936.0</v>
+        <v>44936</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>6</v>
@@ -1268,12 +1310,12 @@
         <v>12</v>
       </c>
       <c r="D68" s="1">
-        <v>71250.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>71250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>45155.0</v>
+        <v>45155</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>11</v>
@@ -1282,12 +1324,12 @@
         <v>7</v>
       </c>
       <c r="D69" s="1">
-        <v>20024.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>20024</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45034.0</v>
+        <v>45034</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>13</v>
@@ -1296,12 +1338,12 @@
         <v>12</v>
       </c>
       <c r="D70" s="1">
-        <v>99368.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>99368</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>44976.0</v>
+        <v>44976</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>11</v>
@@ -1310,12 +1352,12 @@
         <v>7</v>
       </c>
       <c r="D71" s="1">
-        <v>20163.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>20163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45158.0</v>
+        <v>45158</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>6</v>
@@ -1324,12 +1366,12 @@
         <v>9</v>
       </c>
       <c r="D72" s="1">
-        <v>64601.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>64601</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>45189.0</v>
+        <v>45189</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>11</v>
@@ -1338,12 +1380,12 @@
         <v>7</v>
       </c>
       <c r="D73" s="1">
-        <v>93151.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>93151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>45125.0</v>
+        <v>45125</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>11</v>
@@ -1352,12 +1394,12 @@
         <v>7</v>
       </c>
       <c r="D74" s="1">
-        <v>22556.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>22556</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>45097.0</v>
+        <v>45097</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>13</v>
@@ -1366,12 +1408,12 @@
         <v>12</v>
       </c>
       <c r="D75" s="1">
-        <v>89886.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>89886</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>45092.0</v>
+        <v>45092</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>4</v>
@@ -1380,12 +1422,12 @@
         <v>8</v>
       </c>
       <c r="D76" s="1">
-        <v>95512.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>95512</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>44993.0</v>
+        <v>44993</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>4</v>
@@ -1394,12 +1436,12 @@
         <v>5</v>
       </c>
       <c r="D77" s="1">
-        <v>27882.0</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>27882</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>45026.0</v>
+        <v>45026</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>4</v>
@@ -1408,12 +1450,12 @@
         <v>9</v>
       </c>
       <c r="D78" s="1">
-        <v>28483.0</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>28483</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>45062.0</v>
+        <v>45062</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>4</v>
@@ -1422,12 +1464,12 @@
         <v>9</v>
       </c>
       <c r="D79" s="1">
-        <v>78443.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>78443</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45038.0</v>
+        <v>45038</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>6</v>
@@ -1436,12 +1478,12 @@
         <v>5</v>
       </c>
       <c r="D80" s="1">
-        <v>15181.0</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>15181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>45186.0</v>
+        <v>45186</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>4</v>
@@ -1450,12 +1492,12 @@
         <v>5</v>
       </c>
       <c r="D81" s="1">
-        <v>86435.0</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>86435</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>45057.0</v>
+        <v>45057</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>13</v>
@@ -1464,12 +1506,12 @@
         <v>7</v>
       </c>
       <c r="D82" s="1">
-        <v>26405.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>26405</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>44968.0</v>
+        <v>44968</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>13</v>
@@ -1478,12 +1520,12 @@
         <v>10</v>
       </c>
       <c r="D83" s="1">
-        <v>44661.0</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>44661</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>44966.0</v>
+        <v>44966</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>11</v>
@@ -1492,12 +1534,12 @@
         <v>12</v>
       </c>
       <c r="D84" s="1">
-        <v>86885.0</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>86885</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45184.0</v>
+        <v>45184</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>11</v>
@@ -1506,12 +1548,12 @@
         <v>10</v>
       </c>
       <c r="D85" s="1">
-        <v>62641.0</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>62641</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>45185.0</v>
+        <v>45185</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>13</v>
@@ -1520,12 +1562,12 @@
         <v>9</v>
       </c>
       <c r="D86" s="1">
-        <v>31383.0</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>31383</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>45240.0</v>
+        <v>45240</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>13</v>
@@ -1534,12 +1576,12 @@
         <v>8</v>
       </c>
       <c r="D87" s="1">
-        <v>27658.0</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>27658</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>44944.0</v>
+        <v>44944</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>6</v>
@@ -1548,12 +1590,12 @@
         <v>5</v>
       </c>
       <c r="D88" s="1">
-        <v>94797.0</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>94797</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>45096.0</v>
+        <v>45096</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>4</v>
@@ -1562,12 +1604,12 @@
         <v>12</v>
       </c>
       <c r="D89" s="1">
-        <v>65909.0</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>65909</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>45270.0</v>
+        <v>45270</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>6</v>
@@ -1576,12 +1618,12 @@
         <v>9</v>
       </c>
       <c r="D90" s="1">
-        <v>38292.0</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>38292</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>44995.0</v>
+        <v>44995</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>11</v>
@@ -1590,12 +1632,12 @@
         <v>12</v>
       </c>
       <c r="D91" s="1">
-        <v>3099.0</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>45212.0</v>
+        <v>45212</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>11</v>
@@ -1604,12 +1646,12 @@
         <v>5</v>
       </c>
       <c r="D92" s="1">
-        <v>95513.0</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>95513</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>45250.0</v>
+        <v>45250</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>11</v>
@@ -1618,12 +1660,12 @@
         <v>5</v>
       </c>
       <c r="D93" s="1">
-        <v>73110.0</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>73110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>45179.0</v>
+        <v>45179</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>6</v>
@@ -1632,12 +1674,12 @@
         <v>5</v>
       </c>
       <c r="D94" s="1">
-        <v>82625.0</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>82625</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>45248.0</v>
+        <v>45248</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>4</v>
@@ -1646,12 +1688,12 @@
         <v>12</v>
       </c>
       <c r="D95" s="1">
-        <v>35885.0</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>35885</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>44998.0</v>
+        <v>44998</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>11</v>
@@ -1660,12 +1702,12 @@
         <v>7</v>
       </c>
       <c r="D96" s="1">
-        <v>98528.0</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>98528</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>45271.0</v>
+        <v>45271</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>13</v>
@@ -1674,12 +1716,12 @@
         <v>5</v>
       </c>
       <c r="D97" s="1">
-        <v>47063.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>47063</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>45067.0</v>
+        <v>45067</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>11</v>
@@ -1688,12 +1730,12 @@
         <v>12</v>
       </c>
       <c r="D98" s="1">
-        <v>52096.0</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>52096</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>45116.0</v>
+        <v>45116</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>6</v>
@@ -1702,12 +1744,12 @@
         <v>8</v>
       </c>
       <c r="D99" s="1">
-        <v>75243.0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>75243</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>45099.0</v>
+        <v>45099</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>6</v>
@@ -1716,12 +1758,12 @@
         <v>5</v>
       </c>
       <c r="D100" s="1">
-        <v>98388.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>98388</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>45150.0</v>
+        <v>45150</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>6</v>
@@ -1730,10 +1772,1929 @@
         <v>12</v>
       </c>
       <c r="D101" s="1">
-        <v>39092.0</v>
+        <v>39092</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:D101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A691C3AF-31A5-4D42-A218-4AB41598AD65}">
+  <dimension ref="A1:R25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1">
+        <v>59016</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1">
+        <v>81827</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1">
+        <v>15196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>59016</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>27882</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="1">
+        <v>65596</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="1">
+        <v>7898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>81827</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>86435</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="1">
+        <v>81374</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="1">
+        <v>30389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>28679</v>
+      </c>
+      <c r="J4">
+        <f>SUM(J1:J3)</f>
+        <v>173333</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="1">
+        <v>98527</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="1">
+        <v>10982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>15196</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="1">
+        <v>16648</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="1">
+        <v>65909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>52338</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="1">
+        <v>95512</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="1">
+        <v>35885</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>65596</v>
+      </c>
+      <c r="N7">
+        <f>SUM(N1:N6)</f>
+        <v>439484</v>
+      </c>
+      <c r="R7">
+        <f>SUM(R1:R6)</f>
+        <v>166259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>81374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>98527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7898</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1">
+        <v>28299</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="1">
+        <v>28679</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="1">
+        <v>11279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>28299</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1">
+        <v>79802</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="1">
+        <v>52338</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="1">
+        <v>28483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>30389</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1">
+        <v>69906</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1670</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="1">
+        <v>78443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11279</v>
+      </c>
+      <c r="J14">
+        <f>SUM(J11:J13)</f>
+        <v>178007</v>
+      </c>
+      <c r="N14">
+        <f>SUM(N11:N13)</f>
+        <v>82687</v>
+      </c>
+      <c r="R14">
+        <f>SUM(R11:R13)</f>
+        <v>118205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>79802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>16648</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>69906</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1">
+        <v>95512</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>27882</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1">
+        <v>28483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1">
+        <v>78443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>86435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1">
+        <v>65909</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1">
+        <v>35885</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C25" xr:uid="{A691C3AF-31A5-4D42-A218-4AB41598AD65}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6298FE-BF7F-43ED-8DA0-BA9EE136D53F}">
+  <dimension ref="A1:S32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1">
+        <v>67143</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1">
+        <v>67734</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1">
+        <v>86885</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>67734</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45234</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="1">
+        <v>27673</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>67143</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>16644</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="1">
+        <v>77789</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="1">
+        <v>52096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45234</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>84164</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="1">
+        <v>98919</v>
+      </c>
+      <c r="S4">
+        <f>SUM(S1:S3)</f>
+        <v>142080</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>32380</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>40888</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="1">
+        <v>72584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>27673</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>43261</v>
+      </c>
+      <c r="O6">
+        <f>SUM(O1:O5)</f>
+        <v>344699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>77789</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>95513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>94971</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>73110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>98919</v>
+      </c>
+      <c r="K9">
+        <f>SUM(K1:K8)</f>
+        <v>465957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>32793</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>72584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>88743</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1">
+        <v>32380</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="1">
+        <v>32793</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="1">
+        <v>94971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>16644</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="1">
+        <v>7937</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="1">
+        <v>22648</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S13" s="1">
+        <v>88743</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>22648</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="1">
+        <v>62641</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="1">
+        <v>40459</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S14" s="1">
+        <v>66531</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>84164</v>
+      </c>
+      <c r="K15">
+        <f>SUM(K12:K14)</f>
+        <v>102958</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="1">
+        <v>20024</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S15" s="1">
+        <v>34908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1">
+        <v>40459</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="1">
+        <v>20163</v>
+      </c>
+      <c r="S16">
+        <f>SUM(S12:S15)</f>
+        <v>285153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>40888</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17" s="1">
+        <v>93151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>66531</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="1">
+        <v>22556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43261</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" s="1">
+        <v>98528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1">
+        <v>34908</v>
+      </c>
+      <c r="O20">
+        <f>SUM(O12:O19)</f>
+        <v>350322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7937</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>20024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1">
+        <v>93151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1">
+        <v>22556</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1">
+        <v>86885</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1">
+        <v>62641</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>95513</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1">
+        <v>73110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1">
+        <v>98528</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1">
+        <v>52096</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C32" xr:uid="{0D6298FE-BF7F-43ED-8DA0-BA9EE136D53F}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84C0A27-74C0-48D3-A78F-053DC5F9F2ED}">
+  <dimension ref="A1:S19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1035</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1">
+        <v>9935</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1">
+        <v>61548</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9935</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>70013</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="1">
+        <v>46992</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1">
+        <v>73120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>61548</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>9698</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="1">
+        <v>14179</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="1">
+        <v>99368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>46992</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>93619</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="1">
+        <v>27658</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="1">
+        <v>89886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>73120</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>47063</v>
+      </c>
+      <c r="O5">
+        <f>SUM(O1:O4)</f>
+        <v>98764</v>
+      </c>
+      <c r="S5">
+        <f>SUM(S1:S4)</f>
+        <v>323922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1035</v>
+      </c>
+      <c r="K6">
+        <f>SUM(K1:K5)</f>
+        <v>221428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>70013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>14179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>98763</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="1">
+        <v>98763</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="1">
+        <v>26405</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="1">
+        <v>89235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>89235</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="1">
+        <v>44661</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="1">
+        <v>31383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9698</v>
+      </c>
+      <c r="K11">
+        <f>SUM(K9:K10)</f>
+        <v>143424</v>
+      </c>
+      <c r="S11">
+        <f>SUM(S9:S10)</f>
+        <v>120618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>93619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>99368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>89886</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>26405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1">
+        <v>31383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1">
+        <v>27658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>47063</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C19" xr:uid="{A84C0A27-74C0-48D3-A78F-053DC5F9F2ED}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDB98F2-F6CA-4E8F-8E27-99C263956ADC}">
+  <dimension ref="A1:S28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1">
+        <v>52135</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1">
+        <v>12660</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1">
+        <v>49516</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>26877</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>79714</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="1">
+        <v>81549</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1">
+        <v>87300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12660</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>15181</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="1">
+        <v>68086</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="1">
+        <v>16325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10511</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>94797</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="1">
+        <v>4203</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="1">
+        <v>16240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>37270</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>82625</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="1">
+        <v>75243</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="1">
+        <v>71250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>49516</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>98388</v>
+      </c>
+      <c r="O6">
+        <f>SUM(O1:O5)</f>
+        <v>241741</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="1">
+        <v>39092</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>81549</v>
+      </c>
+      <c r="K7">
+        <f>SUM(K1:K6)</f>
+        <v>422840</v>
+      </c>
+      <c r="S7">
+        <f>SUM(S1:S6)</f>
+        <v>279723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>73647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>88130</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="1">
+        <v>37270</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="1">
+        <v>26877</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="1">
+        <v>10511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>68086</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="1">
+        <v>73647</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="1">
+        <v>15747</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="1">
+        <v>86175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4203</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1">
+        <v>88130</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="1">
+        <v>58878</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" s="1">
+        <v>64601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>15747</v>
+      </c>
+      <c r="K12">
+        <f>SUM(K9:K11)</f>
+        <v>199047</v>
+      </c>
+      <c r="O12">
+        <f>SUM(O9:O11)</f>
+        <v>101502</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="1">
+        <v>38292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>87300</v>
+      </c>
+      <c r="S13">
+        <f>SUM(S9:S12)</f>
+        <v>199579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>58878</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>52135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>16325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>79714</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>86175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1">
+        <v>71250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1">
+        <v>64601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>15181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>94797</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1">
+        <v>38292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>82625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>75243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>98388</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1">
+        <v>39092</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C28" xr:uid="{1BDB98F2-F6CA-4E8F-8E27-99C263956ADC}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>